--- a/db/doc/테이블명세서.xlsx
+++ b/db/doc/테이블명세서.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="492" windowWidth="28800" windowHeight="16440" tabRatio="829" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="829" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
     <sheet name="Entity 정의서" sheetId="2" r:id="rId2"/>
-    <sheet name="회원 테이블  명세서 (2)" sheetId="7" r:id="rId3"/>
-    <sheet name="아바타 정보 테이블" sheetId="8" r:id="rId4"/>
-    <sheet name="회원 테이블  명세서" sheetId="3" r:id="rId5"/>
+    <sheet name="회원 테이블  명세서" sheetId="7" r:id="rId3"/>
+    <sheet name="아바타 테이블  명세서" sheetId="8" r:id="rId4"/>
+    <sheet name="회원 테이블" sheetId="3" r:id="rId5"/>
     <sheet name="게시판 테이블  명세서" sheetId="5" r:id="rId6"/>
-    <sheet name="파일정보 테이블  명세서" sheetId="6" r:id="rId7"/>
-    <sheet name="샘플 테이블  명세서" sheetId="4" r:id="rId8"/>
+    <sheet name="방명록 테이블" sheetId="9" r:id="rId7"/>
+    <sheet name="파일정보 테이블  명세서" sheetId="6" r:id="rId8"/>
+    <sheet name="샘플 테이블  명세서" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="188">
   <si>
     <t>관리자권한여부</t>
   </si>
@@ -447,38 +448,6 @@
   </si>
   <si>
     <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>cott</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>iger</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>x</t>
     </r>
     <r>
@@ -678,10 +647,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>생일</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>노출여부</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -779,22 +744,6 @@
   </si>
   <si>
     <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>irth</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>i</t>
     </r>
     <r>
@@ -902,22 +851,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>0 CHAR</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -958,10 +891,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>예 ] 2022/04/01</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> CHECK IN('Y', 'N')/ Y: 노출, N:숨김</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1018,11 +947,215 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>bno</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>upno</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmno</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>edate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>isshow</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>EFERENCES member(mno)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y'</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jennie</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>vatar</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>아바타 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 테이블</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>아바타</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>avatar</t>
+    <r>
+      <t>일련번호,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 아바타이름, 원이름, 저장이름, 저장경로, 파일크기, 노출여부</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memb</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>avt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>EFERENCES avatar(ano)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.04.04</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타 정보 테이블</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타 이름</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>원이름</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장이름</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장경로</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일크기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ano</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aname</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>savename</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>oriname</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>len</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>isshow</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1030,51 +1163,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.04.04</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>아바타 정보 테이블</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ano</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>아바타 이름</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>aname</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>원이름</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장이름</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장경로</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일크기</t>
+    <t>50 CHAR</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 CHAR</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1082,39 +1175,83 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 CHAR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 CHAR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>oriname</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>savename</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dir</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>len</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>adate</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>REFERENCES avatar(ano)</t>
+    <t>DATE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK IN('Y', 'N'), Y: 사용, N: 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUESTBOARD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>방명록 테이블</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.04.05</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>글내용</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gno</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>HECK IN('Y', 'N'), Y: 노출, N : 삭제</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2213,6 +2350,60 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2250,60 +2441,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2705,7 +2842,7 @@
   <dimension ref="C2:E33"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999"/>
@@ -2765,7 +2902,7 @@
       </c>
       <c r="D9" s="79"/>
       <c r="E9" s="66" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="3:5" s="1" customFormat="1">
@@ -2773,8 +2910,8 @@
         <v>35</v>
       </c>
       <c r="D10" s="79"/>
-      <c r="E10" s="66" t="s">
-        <v>77</v>
+      <c r="E10" s="66">
+        <v>12345</v>
       </c>
     </row>
     <row r="11" spans="3:5">
@@ -2783,7 +2920,7 @@
       </c>
       <c r="D11" s="74"/>
       <c r="E11" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="3:5">
@@ -2802,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="3:5">
@@ -2813,10 +2950,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="64" t="s">
         <v>80</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="3:5">
@@ -2824,18 +2961,22 @@
         <v>3</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="4">
         <v>4</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="4">
@@ -2972,7 +3113,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.399999999999999"/>
@@ -3005,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -3016,10 +3157,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -3027,18 +3168,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4">
@@ -3134,8 +3279,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999"/>
@@ -3156,78 +3301,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="2:15" ht="18" thickBot="1">
+      <c r="B4" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
-    </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1">
-      <c r="B4" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.6" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="18" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -3275,16 +3420,16 @@
         <v>46</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F7" s="23">
         <v>4</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="33"/>
@@ -3298,22 +3443,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="35" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -3324,24 +3469,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="35" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -3352,22 +3497,22 @@
         <v>4</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -3379,24 +3524,24 @@
         <v>5</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="35" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="17"/>
@@ -3407,129 +3552,129 @@
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E12" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="69" t="s">
         <v>117</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>121</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="35" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="17"/>
       <c r="M12" s="51" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="57">
         <v>7</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40" t="s">
+      <c r="C13" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="69">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="50"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="51" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="57">
         <v>8</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F14" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="K14" s="35"/>
+        <v>120</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>120</v>
+      </c>
       <c r="L14" s="35"/>
       <c r="M14" s="51" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="57">
         <v>9</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="24">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="51" t="s">
+      <c r="C15" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="40" t="s">
         <v>128</v>
       </c>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="57">
         <v>10</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F16" s="39">
         <v>1</v>
@@ -3538,33 +3683,33 @@
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="38" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K16" s="40" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="L16" s="44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M16" s="72" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="57">
         <v>11</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="51"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="72"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="57">
@@ -3712,40 +3857,40 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3776,8 +3921,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999"/>
@@ -3798,78 +3943,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="2:15" ht="18" thickBot="1">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.6" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="18" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -3914,13 +4059,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="F7" s="23">
         <v>2</v>
@@ -3940,16 +4085,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -3966,16 +4111,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3992,16 +4137,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -4021,16 +4166,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -4047,13 +4192,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="17"/>
@@ -4070,75 +4215,75 @@
       <c r="B13" s="57">
         <v>7</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40" t="s">
+      <c r="C13" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="69"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="50"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" s="49"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="57">
         <v>8</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="39">
+      <c r="C14" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="69">
         <v>1</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="38" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="M14" s="72" t="s">
-        <v>130</v>
+      <c r="L14" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="57">
         <v>9</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="51"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="57">
@@ -4160,17 +4305,17 @@
       <c r="B17" s="57">
         <v>11</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="51"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="72"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="57">
@@ -4318,40 +4463,40 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4382,8 +4527,8 @@
   </sheetPr>
   <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999"/>
@@ -4403,78 +4548,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.6" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="18" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -4519,19 +4664,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F7" s="23">
         <v>4</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="33"/>
@@ -4545,22 +4690,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -4571,24 +4716,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -4599,22 +4744,22 @@
         <v>4</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -4626,24 +4771,24 @@
         <v>5</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="17"/>
@@ -4654,29 +4799,29 @@
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E12" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="69" t="s">
         <v>117</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>121</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="17"/>
       <c r="M12" s="51" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -4684,22 +4829,22 @@
         <v>7</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -4710,13 +4855,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F14" s="24">
         <v>1</v>
@@ -4725,101 +4870,89 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="51" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="57">
         <v>9</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="38" t="s">
-        <v>125</v>
+      <c r="J15" s="40" t="s">
+        <v>120</v>
       </c>
       <c r="K15" s="42"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="72" t="s">
-        <v>129</v>
-      </c>
+      <c r="L15" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="57">
         <v>10</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="42"/>
+      <c r="C16" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="39">
+        <v>1</v>
+      </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
-      <c r="J16" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="M16" s="50"/>
+      <c r="J16" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="72" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="57">
         <v>11</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="39">
-        <v>1</v>
-      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
-      <c r="J17" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="M17" s="72" t="s">
-        <v>130</v>
-      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="72"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="57">
@@ -4967,40 +5100,40 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
     <row r="34" spans="5:5">
       <c r="E34"/>
@@ -5034,8 +5167,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999"/>
@@ -5056,74 +5189,74 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="2:15" ht="18" thickBot="1">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.6" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="18" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -5168,10 +5301,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="D7" s="48" t="s">
+        <v>129</v>
+      </c>
       <c r="E7" s="33"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="33" t="s">
+        <v>51</v>
+      </c>
       <c r="H7" s="22"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -5184,7 +5321,9 @@
         <v>2</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="D8" s="35" t="s">
+        <v>130</v>
+      </c>
       <c r="E8" s="35"/>
       <c r="F8" s="69"/>
       <c r="G8" s="17"/>
@@ -5200,23 +5339,33 @@
         <v>3</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
+      <c r="D9" s="35" t="s">
+        <v>131</v>
+      </c>
       <c r="E9" s="35"/>
       <c r="F9" s="69"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="51" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="57">
         <v>4</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
+      <c r="D10" s="35" t="s">
+        <v>132</v>
+      </c>
       <c r="E10" s="35"/>
       <c r="F10" s="69"/>
       <c r="G10" s="17"/>
@@ -5233,7 +5382,9 @@
         <v>5</v>
       </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
+      <c r="D11" s="35" t="s">
+        <v>133</v>
+      </c>
       <c r="E11" s="35"/>
       <c r="F11" s="69"/>
       <c r="G11" s="17"/>
@@ -5241,7 +5392,7 @@
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="25"/>
     </row>
     <row r="12" spans="2:15">
@@ -5249,7 +5400,9 @@
         <v>6</v>
       </c>
       <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
+      <c r="D12" s="35" t="s">
+        <v>134</v>
+      </c>
       <c r="E12" s="35"/>
       <c r="F12" s="69"/>
       <c r="G12" s="17"/>
@@ -5257,7 +5410,9 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="17"/>
+      <c r="L12" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="2:15">
@@ -5265,7 +5420,9 @@
         <v>7</v>
       </c>
       <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
+      <c r="D13" s="35" t="s">
+        <v>135</v>
+      </c>
       <c r="E13" s="35"/>
       <c r="F13" s="69"/>
       <c r="G13" s="17"/>
@@ -5281,7 +5438,9 @@
         <v>8</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
+      <c r="D14" s="35" t="s">
+        <v>136</v>
+      </c>
       <c r="E14" s="35"/>
       <c r="F14" s="24"/>
       <c r="G14" s="17"/>
@@ -5289,7 +5448,9 @@
       <c r="I14" s="17"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+      <c r="L14" s="35">
+        <v>0</v>
+      </c>
       <c r="M14" s="51"/>
     </row>
     <row r="15" spans="2:15">
@@ -5297,7 +5458,9 @@
         <v>9</v>
       </c>
       <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>137</v>
+      </c>
       <c r="E15" s="38"/>
       <c r="F15" s="70"/>
       <c r="G15" s="42"/>
@@ -5305,7 +5468,9 @@
       <c r="I15" s="42"/>
       <c r="J15" s="38"/>
       <c r="K15" s="42"/>
-      <c r="L15" s="40"/>
+      <c r="L15" s="44" t="s">
+        <v>139</v>
+      </c>
       <c r="M15" s="72"/>
     </row>
     <row r="16" spans="2:15">
@@ -5486,40 +5651,40 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5550,8 +5715,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999"/>
@@ -5572,74 +5737,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="2:15" ht="18" thickBot="1">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.6" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="18" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -5683,11 +5852,21 @@
       <c r="B7" s="56">
         <v>1</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="33"/>
+      <c r="C7" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="23">
+        <v>4</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>51</v>
+      </c>
       <c r="H7" s="22"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -5699,48 +5878,84 @@
       <c r="B8" s="57">
         <v>2</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="69"/>
+      <c r="C8" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="69">
+        <v>4</v>
+      </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="35"/>
+      <c r="H8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="51" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="57">
         <v>3</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="69"/>
+      <c r="C9" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="69">
+        <v>4000</v>
+      </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="57">
         <v>4</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>172</v>
+      </c>
       <c r="F10" s="69"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="M10" s="25"/>
       <c r="O10" s="31"/>
     </row>
@@ -5748,17 +5963,33 @@
       <c r="B11" s="57">
         <v>5</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="69"/>
+      <c r="C11" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="69">
+        <v>1</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="25"/>
+      <c r="J11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="57">
@@ -5773,7 +6004,7 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="17"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="2:15">
@@ -5821,7 +6052,7 @@
       <c r="I15" s="42"/>
       <c r="J15" s="38"/>
       <c r="K15" s="42"/>
-      <c r="L15" s="40"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="72"/>
     </row>
     <row r="16" spans="2:15">
@@ -6002,40 +6233,40 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6066,7 +6297,523 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.59765625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.59765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.8984375" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.8984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="18" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="2:15" ht="18" thickBot="1">
+      <c r="B4" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="102"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.6" thickBot="1">
+      <c r="B5" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
+    </row>
+    <row r="6" spans="2:15" ht="18" thickBot="1">
+      <c r="B6" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="56">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="57">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="57">
+        <v>3</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="57">
+        <v>4</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="25"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="57">
+        <v>5</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="57">
+        <v>6</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="57">
+        <v>7</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="57">
+        <v>8</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="57">
+        <v>9</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="72"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="57">
+        <v>10</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="57">
+        <v>11</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="72"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="57">
+        <v>12</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="57">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="57">
+        <v>14</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="57">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="25"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="57">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="57">
+        <v>17</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="52"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="57">
+        <v>18</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="52"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="57">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="2:16" ht="18" thickBot="1">
+      <c r="B26" s="58">
+        <v>20</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
+    </row>
+    <row r="28" spans="2:16" ht="18" thickBot="1">
+      <c r="B28" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:M3"/>
     </sheetView>
   </sheetViews>
